--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Report_Location</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>C:/Users/Owner/PycharmProjects/pysql/Test_Files/</t>
+  </si>
+  <si>
+    <t>Source_Type</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Target_Type</t>
   </si>
 </sst>
 </file>
@@ -441,24 +450,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -469,19 +480,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -492,19 +509,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -515,15 +538,21 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Report_Location</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Target_Type</t>
+  </si>
+  <si>
+    <t>[9,16,6]</t>
+  </si>
+  <si>
+    <t>FixWidth</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,14 +147,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +488,7 @@
     <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -497,8 +516,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -526,8 +548,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Report_Location</t>
   </si>
@@ -45,30 +45,15 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>TC2</t>
-  </si>
-  <si>
     <t>C:/Users/Owner/PycharmProjects/pysql/Results/Report</t>
   </si>
   <si>
     <t>file1.csv</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>file1_2.csv</t>
-  </si>
-  <si>
     <t>file2.csv</t>
   </si>
   <si>
-    <t>file2_2.csv</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Test_Case_Name</t>
   </si>
   <si>
@@ -78,9 +63,6 @@
     <t>Source_Type</t>
   </si>
   <si>
-    <t>csv</t>
-  </si>
-  <si>
     <t>Target_Type</t>
   </si>
   <si>
@@ -88,6 +70,12 @@
   </si>
   <si>
     <t>FixWidth</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>ID,Name</t>
   </si>
 </sst>
 </file>
@@ -162,12 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +479,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -499,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -508,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -517,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -525,59 +514,30 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -607,7 +567,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Report_Location</t>
   </si>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,38 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Report_Location</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>ID,Name</t>
+  </si>
+  <si>
+    <t>TC2</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>

--- a/code_scripts/Input_file.xlsx
+++ b/code_scripts/Input_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Report_Location</t>
   </si>
@@ -66,19 +66,34 @@
     <t>Target_Type</t>
   </si>
   <si>
-    <t>[9,16,6]</t>
-  </si>
-  <si>
-    <t>FixWidth</t>
-  </si>
-  <si>
     <t>CSV</t>
   </si>
   <si>
-    <t>ID,Name</t>
-  </si>
-  <si>
     <t>TC2</t>
+  </si>
+  <si>
+    <t>Source_SQL</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>SQLITE</t>
+  </si>
+  <si>
+    <t>select* from tab1 where Age &gt; 80</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Target_SQL</t>
   </si>
 </sst>
 </file>
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,15 +487,15 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -494,25 +509,29 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -523,57 +542,66 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="L3" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
